--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1712653.01155826</v>
+        <v>-1715098.865906505</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5564200.811496558</v>
+        <v>5564200.81149656</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>85.85844099027554</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>46.50789646032952</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>223.9610909085642</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -738,13 +738,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>239.9047588732627</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.53633669478011</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>24.66564457977052</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>141.8493698519414</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>89.83938363460537</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>21.16154086980906</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>168.6816137320435</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>17.10483205328065</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.64571997422914</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>95.61714085086157</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>251.0813514100384</v>
       </c>
       <c r="V11" t="n">
-        <v>284.3419380162473</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>326.3207802245813</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>142.6902742763874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>149.0512283208443</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.8839888646232</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.23924323934183</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>198.1901307509773</v>
       </c>
       <c r="T13" t="n">
-        <v>221.6135917107971</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.4354819700674</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8692712648424</v>
+        <v>299.8692712648426</v>
       </c>
       <c r="I14" t="n">
-        <v>61.38352016918341</v>
+        <v>61.38352016918358</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>120.8949838530151</v>
+        <v>120.8949838530152</v>
       </c>
       <c r="T14" t="n">
         <v>206.1669384155975</v>
@@ -1701,10 +1701,10 @@
         <v>135.274353028885</v>
       </c>
       <c r="H15" t="n">
-        <v>92.25167483393071</v>
+        <v>92.25167483393074</v>
       </c>
       <c r="I15" t="n">
-        <v>18.15567471783599</v>
+        <v>18.15567471783606</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>133.2493548368687</v>
+        <v>133.2493548368688</v>
       </c>
       <c r="T15" t="n">
         <v>191.8245451884829</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>72.66725898184026</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>103.2827825650922</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>99.29417540882814</v>
       </c>
       <c r="S16" t="n">
-        <v>193.785199530844</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.5336137903679</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2244083909005</v>
+        <v>16.30741584534183</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>299.8692712648426</v>
       </c>
       <c r="I17" t="n">
-        <v>61.38352016918341</v>
+        <v>61.38352016918358</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>120.8949838530151</v>
+        <v>120.8949838530152</v>
       </c>
       <c r="T17" t="n">
         <v>206.1669384155975</v>
@@ -1938,10 +1938,10 @@
         <v>135.274353028885</v>
       </c>
       <c r="H18" t="n">
-        <v>92.25167483393071</v>
+        <v>92.25167483393074</v>
       </c>
       <c r="I18" t="n">
-        <v>18.15567471783599</v>
+        <v>18.15567471783606</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>133.2493548368687</v>
+        <v>133.2493548368688</v>
       </c>
       <c r="T18" t="n">
         <v>191.8245451884829</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>106.3449401563023</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2562616559684</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>99.29417540882805</v>
+        <v>66.51879053841883</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.785199530844</v>
       </c>
       <c r="T19" t="n">
-        <v>220.5336137903679</v>
+        <v>220.533613790368</v>
       </c>
       <c r="U19" t="n">
         <v>286.2244083909005</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>61.1752136436708</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>103.2827825650922</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>99.29417540882805</v>
       </c>
       <c r="S22" t="n">
-        <v>193.785199530844</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.5336137903679</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2244083909005</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>16.63158293727768</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>82.53755047721745</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>52.96335799526856</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2244083909005</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>6.882988967594683</v>
+        <v>26.73220612736589</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800361</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145565</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124633</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
         <v>172.5738126575766</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,16 +3904,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
         <v>49.37728379124555</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -4153,7 +4153,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1633.6000740826</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="C2" t="n">
-        <v>1264.637557142189</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D2" t="n">
-        <v>1264.637557142189</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>878.8493045439445</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>467.8633997543369</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2595.142728356464</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2376.508061328526</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2376.508061328526</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2376.508061328526</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2023.739406058412</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2023.739406058412</v>
+        <v>1767.323137322975</v>
       </c>
       <c r="Y2" t="n">
-        <v>1633.6000740826</v>
+        <v>1377.183805347164</v>
       </c>
     </row>
     <row r="3">
@@ -4386,10 +4386,10 @@
         <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
         <v>505.8730812692495</v>
@@ -4407,19 +4407,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4522,16 +4522,16 @@
         <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541693</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W4" t="n">
-        <v>444.0275768541693</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>444.0275768541693</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>431.3646104958056</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.3318138408822</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2672.234298513404</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2453.599631485466</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2453.599631485466</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2122.536744141896</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2122.536744141896</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X5" t="n">
-        <v>1749.070985880816</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y5" t="n">
-        <v>1358.931653905004</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.6767897220518</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>393.6767897220518</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>393.6767897220518</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>393.6767897220518</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>393.6767897220518</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220518</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>607.9652129038891</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>393.6767897220518</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>393.6767897220518</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>393.6767897220518</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V7" t="n">
-        <v>393.6767897220518</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W7" t="n">
-        <v>393.6767897220518</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X7" t="n">
-        <v>393.6767897220518</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.6767897220518</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1686.741202187451</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.778685247039</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2426.109697521687</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2073.341042251573</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2073.341042251573</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>2073.341042251573</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.2716929833838</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="C10" t="n">
-        <v>359.2716929833838</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="D10" t="n">
-        <v>359.2716929833838</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2716929833838</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694738</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694738</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="11">
@@ -5042,16 +5042,16 @@
         <v>362.1463427981748</v>
       </c>
       <c r="K11" t="n">
-        <v>881.2106016345183</v>
+        <v>881.2106016345169</v>
       </c>
       <c r="L11" t="n">
-        <v>1577.432341064686</v>
+        <v>1577.432341064685</v>
       </c>
       <c r="M11" t="n">
-        <v>2368.71971922126</v>
+        <v>2368.719719221259</v>
       </c>
       <c r="N11" t="n">
-        <v>3158.178956876078</v>
+        <v>3158.178956876077</v>
       </c>
       <c r="O11" t="n">
         <v>3858.455290734519</v>
@@ -5075,10 +5075,10 @@
         <v>4219.401711170997</v>
       </c>
       <c r="V11" t="n">
-        <v>3932.187632366707</v>
+        <v>3888.338823827426</v>
       </c>
       <c r="W11" t="n">
-        <v>3579.418977096593</v>
+        <v>3535.570168557312</v>
       </c>
       <c r="X11" t="n">
         <v>3205.953218835513</v>
@@ -5118,25 +5118,25 @@
         <v>96.37693105603283</v>
       </c>
       <c r="J12" t="n">
-        <v>136.1438673169024</v>
+        <v>260.9739923039072</v>
       </c>
       <c r="K12" t="n">
-        <v>282.2667200960694</v>
+        <v>522.8158923431912</v>
       </c>
       <c r="L12" t="n">
-        <v>525.0694694928692</v>
+        <v>765.6186417399909</v>
       </c>
       <c r="M12" t="n">
-        <v>1288.813707057873</v>
+        <v>1529.362879304995</v>
       </c>
       <c r="N12" t="n">
-        <v>2062.455731892267</v>
+        <v>1854.479217033777</v>
       </c>
       <c r="O12" t="n">
-        <v>2337.653869083214</v>
+        <v>2129.677354224724</v>
       </c>
       <c r="P12" t="n">
-        <v>2539.191569832018</v>
+        <v>2331.215054973527</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.99498912299</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.0015004457899</v>
+        <v>972.7936199164452</v>
       </c>
       <c r="C13" t="n">
-        <v>391.065317517883</v>
+        <v>803.8574369885383</v>
       </c>
       <c r="D13" t="n">
-        <v>246.933727339714</v>
+        <v>653.7407975762026</v>
       </c>
       <c r="E13" t="n">
-        <v>246.933727339714</v>
+        <v>505.8277039938095</v>
       </c>
       <c r="F13" t="n">
-        <v>246.933727339714</v>
+        <v>358.9377564958991</v>
       </c>
       <c r="G13" t="n">
-        <v>246.933727339714</v>
+        <v>358.9377564958991</v>
       </c>
       <c r="H13" t="n">
-        <v>96.37693105603283</v>
+        <v>208.3809602122179</v>
       </c>
       <c r="I13" t="n">
         <v>96.37693105603283</v>
@@ -5221,28 +5221,28 @@
         <v>1482.908799050197</v>
       </c>
       <c r="R13" t="n">
-        <v>1482.908799050197</v>
+        <v>1393.778250323589</v>
       </c>
       <c r="S13" t="n">
-        <v>1482.908799050197</v>
+        <v>1193.586199059975</v>
       </c>
       <c r="T13" t="n">
-        <v>1259.056686211008</v>
+        <v>1193.586199059975</v>
       </c>
       <c r="U13" t="n">
-        <v>1259.056686211008</v>
+        <v>1193.586199059975</v>
       </c>
       <c r="V13" t="n">
-        <v>1259.056686211008</v>
+        <v>1193.586199059975</v>
       </c>
       <c r="W13" t="n">
-        <v>969.639516174047</v>
+        <v>1193.586199059975</v>
       </c>
       <c r="X13" t="n">
-        <v>741.6499652760297</v>
+        <v>1193.586199059975</v>
       </c>
       <c r="Y13" t="n">
-        <v>741.6499652760297</v>
+        <v>972.7936199164452</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2400.872509449727</v>
       </c>
       <c r="C14" t="n">
-        <v>2031.909992509315</v>
+        <v>2031.909992509316</v>
       </c>
       <c r="D14" t="n">
         <v>1673.644293902565</v>
@@ -5264,40 +5264,40 @@
         <v>1287.856041304321</v>
       </c>
       <c r="F14" t="n">
-        <v>876.8701365147135</v>
+        <v>876.8701365147133</v>
       </c>
       <c r="G14" t="n">
-        <v>461.2787405853524</v>
+        <v>461.2787405853522</v>
       </c>
       <c r="H14" t="n">
-        <v>158.3804867824808</v>
+        <v>158.3804867824809</v>
       </c>
       <c r="I14" t="n">
         <v>96.37693105603283</v>
       </c>
       <c r="J14" t="n">
-        <v>242.0876810896212</v>
+        <v>242.0876810896208</v>
       </c>
       <c r="K14" t="n">
-        <v>832.1128004660397</v>
+        <v>511.2088420205858</v>
       </c>
       <c r="L14" t="n">
-        <v>1320.635851094778</v>
+        <v>1295.463803739232</v>
       </c>
       <c r="M14" t="n">
-        <v>2209.877151233272</v>
+        <v>2184.705103877725</v>
       </c>
       <c r="N14" t="n">
-        <v>3098.87530773535</v>
+        <v>3073.703260379803</v>
       </c>
       <c r="O14" t="n">
-        <v>3893.143420069834</v>
+        <v>3867.971372714286</v>
       </c>
       <c r="P14" t="n">
-        <v>4533.358494997549</v>
+        <v>4508.186447642001</v>
       </c>
       <c r="Q14" t="n">
-        <v>4726.719753341849</v>
+        <v>4791.779009016102</v>
       </c>
       <c r="R14" t="n">
         <v>4818.846552801641</v>
@@ -5309,16 +5309,16 @@
         <v>4488.480974752538</v>
       </c>
       <c r="U14" t="n">
-        <v>4234.908982364425</v>
+        <v>4234.908982364426</v>
       </c>
       <c r="V14" t="n">
-        <v>3903.846095020855</v>
+        <v>3903.846095020856</v>
       </c>
       <c r="W14" t="n">
-        <v>3551.07743975074</v>
+        <v>3551.077439750741</v>
       </c>
       <c r="X14" t="n">
-        <v>3177.61168148966</v>
+        <v>3177.611681489661</v>
       </c>
       <c r="Y14" t="n">
         <v>2787.472349513849</v>
@@ -5340,40 +5340,40 @@
         <v>650.3122799746557</v>
       </c>
       <c r="E15" t="n">
-        <v>491.0748249692001</v>
+        <v>491.0748249692002</v>
       </c>
       <c r="F15" t="n">
-        <v>344.5402669960851</v>
+        <v>344.5402669960852</v>
       </c>
       <c r="G15" t="n">
-        <v>207.8995063608477</v>
+        <v>207.8995063608478</v>
       </c>
       <c r="H15" t="n">
-        <v>114.7159964275843</v>
+        <v>114.7159964275844</v>
       </c>
       <c r="I15" t="n">
         <v>96.37693105603283</v>
       </c>
       <c r="J15" t="n">
-        <v>289.17353358748</v>
+        <v>164.343408600475</v>
       </c>
       <c r="K15" t="n">
-        <v>483.4938939771246</v>
+        <v>358.6637689901194</v>
       </c>
       <c r="L15" t="n">
-        <v>791.1041402980816</v>
+        <v>666.2740153110758</v>
       </c>
       <c r="M15" t="n">
-        <v>1169.427656888926</v>
+        <v>1044.59753190192</v>
       </c>
       <c r="N15" t="n">
-        <v>1572.17291614292</v>
+        <v>1447.342791155913</v>
       </c>
       <c r="O15" t="n">
-        <v>1918.386350488594</v>
+        <v>2013.94589577075</v>
       </c>
       <c r="P15" t="n">
-        <v>2480.456148163902</v>
+        <v>2272.479633305412</v>
       </c>
       <c r="Q15" t="n">
         <v>2603.359908642243</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>319.8948421671971</v>
+        <v>667.6688899737112</v>
       </c>
       <c r="C16" t="n">
-        <v>319.8948421671971</v>
+        <v>498.7327070458043</v>
       </c>
       <c r="D16" t="n">
-        <v>169.7782027548614</v>
+        <v>348.6160676334686</v>
       </c>
       <c r="E16" t="n">
-        <v>169.7782027548614</v>
+        <v>200.7029740510755</v>
       </c>
       <c r="F16" t="n">
-        <v>96.37693105603283</v>
+        <v>200.7029740510755</v>
       </c>
       <c r="G16" t="n">
-        <v>96.37693105603283</v>
+        <v>200.7029740510755</v>
       </c>
       <c r="H16" t="n">
-        <v>96.37693105603283</v>
+        <v>200.7029740510755</v>
       </c>
       <c r="I16" t="n">
         <v>96.37693105603283</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3694388909379</v>
+        <v>125.3694388909378</v>
       </c>
       <c r="K16" t="n">
-        <v>302.8498721237606</v>
+        <v>302.8498721237602</v>
       </c>
       <c r="L16" t="n">
-        <v>585.4901568902269</v>
+        <v>585.4901568902262</v>
       </c>
       <c r="M16" t="n">
-        <v>893.883831178828</v>
+        <v>893.883831178827</v>
       </c>
       <c r="N16" t="n">
-        <v>1200.379209608454</v>
+        <v>1200.379209608453</v>
       </c>
       <c r="O16" t="n">
-        <v>1467.461003788241</v>
+        <v>1467.461003788239</v>
       </c>
       <c r="P16" t="n">
-        <v>1672.474936285877</v>
+        <v>1672.474936285875</v>
       </c>
       <c r="Q16" t="n">
-        <v>1730.980876285452</v>
+        <v>1730.98087628545</v>
       </c>
       <c r="R16" t="n">
-        <v>1730.980876285452</v>
+        <v>1630.683729407846</v>
       </c>
       <c r="S16" t="n">
-        <v>1535.238250496721</v>
+        <v>1630.683729407846</v>
       </c>
       <c r="T16" t="n">
-        <v>1312.477024445844</v>
+        <v>1630.683729407846</v>
       </c>
       <c r="U16" t="n">
-        <v>1023.361460414631</v>
+        <v>1614.211592190329</v>
       </c>
       <c r="V16" t="n">
-        <v>768.6769722087446</v>
+        <v>1359.527103984442</v>
       </c>
       <c r="W16" t="n">
-        <v>768.6769722087446</v>
+        <v>1070.109933947481</v>
       </c>
       <c r="X16" t="n">
-        <v>540.6874213107272</v>
+        <v>1070.109933947481</v>
       </c>
       <c r="Y16" t="n">
-        <v>319.8948421671971</v>
+        <v>849.3173548039509</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>96.37693105603283</v>
       </c>
       <c r="J17" t="n">
-        <v>242.0876810896212</v>
+        <v>409.4933301099739</v>
       </c>
       <c r="K17" t="n">
-        <v>832.1128004660397</v>
+        <v>999.518449486392</v>
       </c>
       <c r="L17" t="n">
-        <v>1616.367762184686</v>
+        <v>1783.773411205038</v>
       </c>
       <c r="M17" t="n">
-        <v>2505.60906232318</v>
+        <v>2673.014711343531</v>
       </c>
       <c r="N17" t="n">
-        <v>3394.607218825259</v>
+        <v>3562.012867845609</v>
       </c>
       <c r="O17" t="n">
-        <v>4188.875331159742</v>
+        <v>3979.288800729974</v>
       </c>
       <c r="P17" t="n">
-        <v>4510.50968499769</v>
+        <v>4323.166654244244</v>
       </c>
       <c r="Q17" t="n">
         <v>4726.719753341849</v>
@@ -5577,40 +5577,40 @@
         <v>650.3122799746557</v>
       </c>
       <c r="E18" t="n">
-        <v>491.0748249692001</v>
+        <v>491.0748249692002</v>
       </c>
       <c r="F18" t="n">
-        <v>344.5402669960851</v>
+        <v>344.5402669960852</v>
       </c>
       <c r="G18" t="n">
-        <v>207.8995063608477</v>
+        <v>207.8995063608478</v>
       </c>
       <c r="H18" t="n">
-        <v>114.7159964275843</v>
+        <v>114.7159964275844</v>
       </c>
       <c r="I18" t="n">
         <v>96.37693105603283</v>
       </c>
       <c r="J18" t="n">
-        <v>289.17353358748</v>
+        <v>164.343408600475</v>
       </c>
       <c r="K18" t="n">
-        <v>483.4938939771246</v>
+        <v>358.6637689901194</v>
       </c>
       <c r="L18" t="n">
-        <v>791.1041402980816</v>
+        <v>666.2740153110758</v>
       </c>
       <c r="M18" t="n">
-        <v>1169.427656888926</v>
+        <v>1083.040020945612</v>
       </c>
       <c r="N18" t="n">
-        <v>1572.17291614292</v>
+        <v>1485.785280199605</v>
       </c>
       <c r="O18" t="n">
-        <v>2221.922410629239</v>
+        <v>2221.92241062924</v>
       </c>
       <c r="P18" t="n">
-        <v>2480.456148163902</v>
+        <v>2480.456148163903</v>
       </c>
       <c r="Q18" t="n">
         <v>2603.359908642243</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>353.912701939381</v>
+        <v>264.3125488903443</v>
       </c>
       <c r="C19" t="n">
-        <v>246.4935704683685</v>
+        <v>264.3125488903443</v>
       </c>
       <c r="D19" t="n">
-        <v>96.37693105603283</v>
+        <v>264.3125488903443</v>
       </c>
       <c r="E19" t="n">
-        <v>96.37693105603283</v>
+        <v>264.3125488903443</v>
       </c>
       <c r="F19" t="n">
-        <v>96.37693105603283</v>
+        <v>264.3125488903443</v>
       </c>
       <c r="G19" t="n">
         <v>96.37693105603283</v>
@@ -5671,52 +5671,52 @@
         <v>96.37693105603283</v>
       </c>
       <c r="J19" t="n">
-        <v>125.3694388909379</v>
+        <v>125.3694388909378</v>
       </c>
       <c r="K19" t="n">
-        <v>302.8498721237606</v>
+        <v>302.8498721237602</v>
       </c>
       <c r="L19" t="n">
-        <v>585.4901568902269</v>
+        <v>585.4901568902262</v>
       </c>
       <c r="M19" t="n">
-        <v>893.883831178828</v>
+        <v>893.883831178827</v>
       </c>
       <c r="N19" t="n">
-        <v>1200.379209608454</v>
+        <v>1200.379209608453</v>
       </c>
       <c r="O19" t="n">
-        <v>1467.461003788241</v>
+        <v>1467.461003788239</v>
       </c>
       <c r="P19" t="n">
-        <v>1672.474936285877</v>
+        <v>1672.474936285875</v>
       </c>
       <c r="Q19" t="n">
-        <v>1730.980876285452</v>
+        <v>1730.98087628545</v>
       </c>
       <c r="R19" t="n">
-        <v>1630.683729407848</v>
+        <v>1663.790178771896</v>
       </c>
       <c r="S19" t="n">
-        <v>1630.683729407848</v>
+        <v>1468.047552983164</v>
       </c>
       <c r="T19" t="n">
-        <v>1407.922503356971</v>
+        <v>1245.286326932287</v>
       </c>
       <c r="U19" t="n">
-        <v>1118.806939325759</v>
+        <v>956.1707629010748</v>
       </c>
       <c r="V19" t="n">
-        <v>864.1224511198717</v>
+        <v>956.1707629010748</v>
       </c>
       <c r="W19" t="n">
-        <v>574.7052810829111</v>
+        <v>666.7535928641141</v>
       </c>
       <c r="X19" t="n">
-        <v>574.7052810829111</v>
+        <v>666.7535928641141</v>
       </c>
       <c r="Y19" t="n">
-        <v>353.912701939381</v>
+        <v>445.961013720584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2400.872509449727</v>
+        <v>2400.872509449726</v>
       </c>
       <c r="C20" t="n">
-        <v>2031.909992509315</v>
+        <v>2031.909992509314</v>
       </c>
       <c r="D20" t="n">
-        <v>1673.644293902565</v>
+        <v>1673.644293902564</v>
       </c>
       <c r="E20" t="n">
-        <v>1287.856041304321</v>
+        <v>1287.85604130432</v>
       </c>
       <c r="F20" t="n">
-        <v>876.8701365147135</v>
+        <v>876.870136514713</v>
       </c>
       <c r="G20" t="n">
-        <v>461.2787405853524</v>
+        <v>461.278740585352</v>
       </c>
       <c r="H20" t="n">
-        <v>158.3804867824809</v>
+        <v>158.3804867824807</v>
       </c>
       <c r="I20" t="n">
         <v>96.37693105603283</v>
       </c>
       <c r="J20" t="n">
-        <v>409.4933301099742</v>
+        <v>242.0876810896212</v>
       </c>
       <c r="K20" t="n">
-        <v>678.6144910409398</v>
+        <v>832.1128004660397</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.869452759587</v>
+        <v>1616.367762184686</v>
       </c>
       <c r="M20" t="n">
-        <v>2352.110752898081</v>
+        <v>2505.60906232318</v>
       </c>
       <c r="N20" t="n">
-        <v>3241.108909400159</v>
+        <v>3394.607218825259</v>
       </c>
       <c r="O20" t="n">
-        <v>4035.377021734642</v>
+        <v>4188.875331159742</v>
       </c>
       <c r="P20" t="n">
-        <v>4357.01137557259</v>
+        <v>4598.417750671802</v>
       </c>
       <c r="Q20" t="n">
-        <v>4760.564474670196</v>
+        <v>4791.779009016102</v>
       </c>
       <c r="R20" t="n">
         <v>4818.846552801641</v>
@@ -5783,19 +5783,19 @@
         <v>4488.480974752538</v>
       </c>
       <c r="U20" t="n">
-        <v>4234.908982364425</v>
+        <v>4234.908982364424</v>
       </c>
       <c r="V20" t="n">
-        <v>3903.846095020855</v>
+        <v>3903.846095020854</v>
       </c>
       <c r="W20" t="n">
-        <v>3551.07743975074</v>
+        <v>3551.077439750739</v>
       </c>
       <c r="X20" t="n">
         <v>3177.61168148966</v>
       </c>
       <c r="Y20" t="n">
-        <v>2787.472349513849</v>
+        <v>2787.472349513848</v>
       </c>
     </row>
     <row r="21">
@@ -5838,19 +5838,19 @@
         <v>666.2740153110767</v>
       </c>
       <c r="M21" t="n">
-        <v>1236.958472847732</v>
+        <v>1044.597531901921</v>
       </c>
       <c r="N21" t="n">
-        <v>1639.703732101726</v>
+        <v>1875.708976283565</v>
       </c>
       <c r="O21" t="n">
-        <v>1985.9171664474</v>
+        <v>2221.922410629239</v>
       </c>
       <c r="P21" t="n">
-        <v>2244.450903982063</v>
+        <v>2480.456148163902</v>
       </c>
       <c r="Q21" t="n">
-        <v>2575.331179318894</v>
+        <v>2603.359908642243</v>
       </c>
       <c r="R21" t="n">
         <v>2603.359908642243</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>158.1700761506498</v>
+        <v>814.5588374716216</v>
       </c>
       <c r="C22" t="n">
-        <v>158.1700761506498</v>
+        <v>645.6226545437147</v>
       </c>
       <c r="D22" t="n">
-        <v>158.1700761506498</v>
+        <v>495.5060151313789</v>
       </c>
       <c r="E22" t="n">
-        <v>158.1700761506498</v>
+        <v>347.5929215489858</v>
       </c>
       <c r="F22" t="n">
-        <v>96.37693105603283</v>
+        <v>200.7029740510754</v>
       </c>
       <c r="G22" t="n">
-        <v>96.37693105603283</v>
+        <v>200.7029740510754</v>
       </c>
       <c r="H22" t="n">
-        <v>96.37693105603283</v>
+        <v>200.7029740510754</v>
       </c>
       <c r="I22" t="n">
         <v>96.37693105603283</v>
@@ -5935,25 +5935,25 @@
         <v>1630.683729407848</v>
       </c>
       <c r="S22" t="n">
-        <v>1434.941103619117</v>
+        <v>1630.683729407848</v>
       </c>
       <c r="T22" t="n">
-        <v>1212.17987756824</v>
+        <v>1630.683729407848</v>
       </c>
       <c r="U22" t="n">
-        <v>923.0643135370274</v>
+        <v>1341.568165376635</v>
       </c>
       <c r="V22" t="n">
-        <v>668.3798253311405</v>
+        <v>1341.568165376635</v>
       </c>
       <c r="W22" t="n">
-        <v>378.9626552941799</v>
+        <v>1052.150995339675</v>
       </c>
       <c r="X22" t="n">
-        <v>378.9626552941799</v>
+        <v>1035.351416615152</v>
       </c>
       <c r="Y22" t="n">
-        <v>158.1700761506498</v>
+        <v>814.5588374716216</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2400.872509449727</v>
+        <v>2400.872509449726</v>
       </c>
       <c r="C23" t="n">
-        <v>2031.909992509315</v>
+        <v>2031.909992509314</v>
       </c>
       <c r="D23" t="n">
-        <v>1673.644293902565</v>
+        <v>1673.644293902564</v>
       </c>
       <c r="E23" t="n">
-        <v>1287.856041304321</v>
+        <v>1287.85604130432</v>
       </c>
       <c r="F23" t="n">
-        <v>876.8701365147131</v>
+        <v>876.870136514713</v>
       </c>
       <c r="G23" t="n">
-        <v>461.2787405853521</v>
+        <v>461.278740585352</v>
       </c>
       <c r="H23" t="n">
         <v>158.3804867824807</v>
@@ -5987,25 +5987,25 @@
         <v>96.37693105603283</v>
       </c>
       <c r="J23" t="n">
-        <v>409.4933301099742</v>
+        <v>242.0876810896212</v>
       </c>
       <c r="K23" t="n">
-        <v>999.5184494863929</v>
+        <v>832.1128004660397</v>
       </c>
       <c r="L23" t="n">
-        <v>1783.77341120504</v>
+        <v>1616.367762184686</v>
       </c>
       <c r="M23" t="n">
-        <v>2673.014711343534</v>
+        <v>2505.60906232318</v>
       </c>
       <c r="N23" t="n">
-        <v>3163.934563409603</v>
+        <v>3394.607218825259</v>
       </c>
       <c r="O23" t="n">
-        <v>3958.202675744086</v>
+        <v>4188.875331159742</v>
       </c>
       <c r="P23" t="n">
-        <v>4598.417750671802</v>
+        <v>4510.50968499769</v>
       </c>
       <c r="Q23" t="n">
         <v>4791.779009016102</v>
@@ -6020,19 +6020,19 @@
         <v>4488.480974752538</v>
       </c>
       <c r="U23" t="n">
-        <v>4234.908982364425</v>
+        <v>4234.908982364424</v>
       </c>
       <c r="V23" t="n">
-        <v>3903.846095020855</v>
+        <v>3903.846095020854</v>
       </c>
       <c r="W23" t="n">
-        <v>3551.077439750741</v>
+        <v>3551.077439750739</v>
       </c>
       <c r="X23" t="n">
-        <v>3177.611681489661</v>
+        <v>3177.61168148966</v>
       </c>
       <c r="Y23" t="n">
-        <v>2787.472349513849</v>
+        <v>2787.472349513848</v>
       </c>
     </row>
     <row r="24">
@@ -6072,16 +6072,16 @@
         <v>358.6637689901198</v>
       </c>
       <c r="L24" t="n">
-        <v>779.3620594851894</v>
+        <v>666.2740153110767</v>
       </c>
       <c r="M24" t="n">
-        <v>1157.685576076034</v>
+        <v>1472.963717029572</v>
       </c>
       <c r="N24" t="n">
-        <v>1560.430835330028</v>
+        <v>1875.708976283565</v>
       </c>
       <c r="O24" t="n">
-        <v>1906.644269675702</v>
+        <v>2221.922410629239</v>
       </c>
       <c r="P24" t="n">
         <v>2480.456148163902</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.3197008941858</v>
+        <v>348.6843770922402</v>
       </c>
       <c r="C25" t="n">
-        <v>393.3835179662789</v>
+        <v>179.7481941643333</v>
       </c>
       <c r="D25" t="n">
-        <v>243.2668785539432</v>
+        <v>179.7481941643333</v>
       </c>
       <c r="E25" t="n">
-        <v>243.2668785539432</v>
+        <v>179.7481941643333</v>
       </c>
       <c r="F25" t="n">
-        <v>96.37693105603283</v>
+        <v>179.7481941643333</v>
       </c>
       <c r="G25" t="n">
         <v>96.37693105603283</v>
@@ -6175,22 +6175,22 @@
         <v>1630.683729407848</v>
       </c>
       <c r="T25" t="n">
-        <v>1577.185387998486</v>
+        <v>1630.683729407848</v>
       </c>
       <c r="U25" t="n">
-        <v>1288.069823967273</v>
+        <v>1341.568165376635</v>
       </c>
       <c r="V25" t="n">
-        <v>1033.385335761386</v>
+        <v>1086.883677170748</v>
       </c>
       <c r="W25" t="n">
-        <v>743.9681657244255</v>
+        <v>797.4665071337877</v>
       </c>
       <c r="X25" t="n">
-        <v>743.9681657244255</v>
+        <v>569.4769562357703</v>
       </c>
       <c r="Y25" t="n">
-        <v>743.9681657244255</v>
+        <v>348.6843770922402</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6212,40 +6212,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2047.844055175504</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330836</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>974.4454116758762</v>
+        <v>727.0030950818858</v>
       </c>
       <c r="C28" t="n">
-        <v>805.5092287479694</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D28" t="n">
-        <v>655.3925893356336</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E28" t="n">
-        <v>507.4794957532405</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6409,25 +6409,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1859.56049475355</v>
+        <v>1426.058280847104</v>
       </c>
       <c r="V28" t="n">
-        <v>1604.876006547663</v>
+        <v>1426.058280847104</v>
       </c>
       <c r="W28" t="n">
-        <v>1604.876006547663</v>
+        <v>1136.641110810143</v>
       </c>
       <c r="X28" t="n">
-        <v>1376.886455649646</v>
+        <v>908.6515599121255</v>
       </c>
       <c r="Y28" t="n">
-        <v>1156.093876506116</v>
+        <v>908.6515599121255</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1650.184003770974</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2628.734306600803</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N29" t="n">
-        <v>3175.513123659585</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O29" t="n">
-        <v>3678.485594538922</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
         <v>4260.556453353931</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,7 +6622,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K31" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L31" t="n">
         <v>800.7468040499225</v>
@@ -6643,28 +6643,28 @@
         <v>2328.386548123957</v>
       </c>
       <c r="R31" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S31" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T31" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U31" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X31" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036714</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6701,22 +6701,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1518.899775139038</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2497.450077968866</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3044.228895027648</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862919</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430903</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819766</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,10 +6859,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,13 +6877,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T34" t="n">
         <v>1967.452490122057</v>
@@ -6892,7 +6892,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W34" t="n">
         <v>1276.596863849073</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="35">
@@ -6923,49 +6923,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2985.817436667299</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996754</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604875</v>
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,16 +7044,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G37" t="n">
         <v>244.2046325160447</v>
@@ -7090,16 +7090,16 @@
         <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J37" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7114,13 +7114,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R37" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T37" t="n">
         <v>1967.452490122057</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>876.6177432290281</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1741.136558882383</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2274.668463554307</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3254.420735780954</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7205,19 +7205,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7251,10 +7251,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320242</v>
@@ -7269,22 +7269,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215047</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416711</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774087</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430889</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932519</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
@@ -7333,7 +7333,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
         <v>800.7468040499225</v>
@@ -7354,28 +7354,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036711</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7412,25 +7412,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>786.6724891157196</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7442,19 +7442,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7549,10 +7549,10 @@
         <v>667.0286178416718</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932525</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036719</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7649,25 +7649,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2383.057343890769</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N44" t="n">
-        <v>3362.809616117416</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O44" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416713</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D46" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430899</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932522</v>
+        <v>364.4578361932529</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819757</v>
@@ -7804,13 +7804,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7837,19 +7837,19 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036713</v>
+        <v>922.713999703672</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>116.8879265253707</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>453.0562496016285</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>35.92877451773194</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>118.9421124394317</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8945,10 +8945,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>91.14273033313353</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>222.6158285547107</v>
       </c>
       <c r="P15" t="n">
-        <v>306.6020809501472</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>17.20982200995812</v>
+        <v>17.20982200995826</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9176,13 +9176,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>22.46818149123465</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.07960606046396</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,13 +9249,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>38.83079701383025</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>306.6020809501474</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>17.20982200995812</v>
+        <v>17.20982200995826</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9416,13 +9416,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>88.79602593344606</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>31.52983267263266</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,10 +9486,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>194.3039807533447</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>432.693116290556</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>17.20982200995812</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9647,16 +9647,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>35.24762700187335</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>88.79602593344597</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9720,10 +9720,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>114.2303476506189</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>432.6931162905561</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>248.8400772687157</v>
       </c>
       <c r="N26" t="n">
-        <v>285.6623071682324</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>85.51392558917598</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>189.1883762200309</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10349,25 +10349,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.0020851999083</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>251.1867816683982</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>351.4175304294045</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>260.9678829613756</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,28 +11060,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>1.01747575565679</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>294.8707872801649</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>219.3344627260163</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>327.9257290305194</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>156.0516456036745</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22708,13 +22708,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>206.0483166573147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>43.41032045388761</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>43.41032045388772</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>5.925198741825</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.509022445856</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.8839888646232</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>110.6592196523228</v>
+        <v>22.41997641298099</v>
       </c>
       <c r="S13" t="n">
-        <v>198.1901307509773</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.6135917107971</v>
       </c>
       <c r="U13" t="n">
         <v>286.2381953430762</v>
@@ -23476,13 +23476,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>72.75378904109098</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.2562616559684</v>
@@ -23671,7 +23671,7 @@
         <v>146.8039551162067</v>
       </c>
       <c r="I16" t="n">
-        <v>103.2827825650922</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.29417540882805</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.785199530844</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.533613790368</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>269.9169925455587</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>60.9018809423255</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2562616559684</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>146.8039551162067</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>32.77538487040931</v>
       </c>
       <c r="S19" t="n">
-        <v>193.785199530844</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>84.24583437926044</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.2562616559684</v>
@@ -24145,7 +24145,7 @@
         <v>146.8039551162067</v>
       </c>
       <c r="I22" t="n">
-        <v>103.2827825650922</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.785199530844</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.5336137903679</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>209.0780724517595</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2562616559684</v>
+        <v>83.71871117875091</v>
       </c>
       <c r="H25" t="n">
         <v>146.8039551162067</v>
@@ -24415,7 +24415,7 @@
         <v>193.785199530844</v>
       </c>
       <c r="T25" t="n">
-        <v>167.5702557950994</v>
+        <v>220.5336137903679</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.3288492380182</v>
+        <v>259.479632078247</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-6.414868763969913e-13</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-7.480682867610063e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-7.887024366937112e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1307871.385772206</v>
+        <v>1307871.385772205</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97603.5736465173</v>
+        <v>97603.57364651728</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,34 +26320,34 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>97275.33935508695</v>
+        <v>97275.33935508694</v>
       </c>
       <c r="F2" t="n">
         <v>98524.94105488269</v>
       </c>
       <c r="G2" t="n">
+        <v>98524.9410548827</v>
+      </c>
+      <c r="H2" t="n">
+        <v>98524.94105488267</v>
+      </c>
+      <c r="I2" t="n">
         <v>98524.94105488269</v>
       </c>
-      <c r="H2" t="n">
-        <v>98524.9410548827</v>
-      </c>
-      <c r="I2" t="n">
-        <v>98524.94105488267</v>
-      </c>
       <c r="J2" t="n">
-        <v>99270.44672174573</v>
+        <v>99270.44672174576</v>
       </c>
       <c r="K2" t="n">
+        <v>102630.2212330352</v>
+      </c>
+      <c r="L2" t="n">
+        <v>102630.2212330352</v>
+      </c>
+      <c r="M2" t="n">
         <v>102630.2212330353</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>102630.2212330354</v>
-      </c>
-      <c r="M2" t="n">
-        <v>102630.2212330354</v>
-      </c>
-      <c r="N2" t="n">
-        <v>102630.2212330353</v>
       </c>
       <c r="O2" t="n">
         <v>102630.2212330354</v>
@@ -26375,19 +26375,19 @@
         <v>515139.2567303866</v>
       </c>
       <c r="F3" t="n">
-        <v>110794.5786938945</v>
+        <v>110794.5786938937</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7.83457267061749e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>268297.7729744798</v>
+        <v>268297.7729744799</v>
       </c>
       <c r="K3" t="n">
         <v>37580.10929487406</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487408</v>
       </c>
     </row>
     <row r="4">
@@ -26421,31 +26421,31 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
         <v>36590.62216197859</v>
       </c>
       <c r="F4" t="n">
-        <v>27155.64488044493</v>
+        <v>27155.64488044499</v>
       </c>
       <c r="G4" t="n">
-        <v>27155.64488044492</v>
+        <v>27155.64488044498</v>
       </c>
       <c r="H4" t="n">
         <v>27155.64488044492</v>
       </c>
       <c r="I4" t="n">
-        <v>27155.64488044491</v>
+        <v>27155.64488044492</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="L4" t="n">
-        <v>33605.65329740901</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="M4" t="n">
         <v>33605.65329740899</v>
@@ -26479,10 +26479,10 @@
         <v>91161.97944239512</v>
       </c>
       <c r="F5" t="n">
-        <v>94217.62760960081</v>
+        <v>94217.62760960079</v>
       </c>
       <c r="G5" t="n">
-        <v>94217.62760960081</v>
+        <v>94217.62760960079</v>
       </c>
       <c r="H5" t="n">
         <v>94217.62760960081</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-735619.7109456141</v>
+        <v>-735720.2438973446</v>
       </c>
       <c r="C6" t="n">
         <v>-163577.543687502</v>
@@ -26528,40 +26528,40 @@
         <v>-163577.543687502</v>
       </c>
       <c r="E6" t="n">
-        <v>-545616.5189796734</v>
+        <v>-545723.6166172323</v>
       </c>
       <c r="F6" t="n">
-        <v>-133642.9101290576</v>
+        <v>-133725.0157326198</v>
       </c>
       <c r="G6" t="n">
-        <v>-22848.33143516304</v>
+        <v>-22930.43703872612</v>
       </c>
       <c r="H6" t="n">
-        <v>-22848.33143516303</v>
+        <v>-22930.43703872689</v>
       </c>
       <c r="I6" t="n">
-        <v>-22848.33143516304</v>
+        <v>-22930.43703872609</v>
       </c>
       <c r="J6" t="n">
-        <v>-283559.3368256377</v>
+        <v>-283626.5323158635</v>
       </c>
       <c r="K6" t="n">
-        <v>-68888.2123733499</v>
+        <v>-68888.21237334992</v>
       </c>
       <c r="L6" t="n">
-        <v>-31308.10307847575</v>
+        <v>-31308.10307847588</v>
       </c>
       <c r="M6" t="n">
-        <v>-163491.9766450445</v>
+        <v>-163491.9766450446</v>
       </c>
       <c r="N6" t="n">
-        <v>-31308.10307847577</v>
+        <v>-31308.10307847572</v>
       </c>
       <c r="O6" t="n">
         <v>-31308.10307847575</v>
       </c>
       <c r="P6" t="n">
-        <v>-68888.21237334987</v>
+        <v>-68888.21237334982</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.126322092888501e-15</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
@@ -26725,7 +26725,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26747,10 +26747,10 @@
         <v>821.8124697160631</v>
       </c>
       <c r="F3" t="n">
-        <v>961.9798168355901</v>
+        <v>961.9798168355891</v>
       </c>
       <c r="G3" t="n">
-        <v>961.9798168355901</v>
+        <v>961.9798168355891</v>
       </c>
       <c r="H3" t="n">
         <v>961.9798168355901</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="3">
@@ -26969,13 +26969,13 @@
         <v>444.0688054989764</v>
       </c>
       <c r="F3" t="n">
-        <v>140.167347119527</v>
+        <v>140.167347119526</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>664.0885651590754</v>
+        <v>664.0885651590755</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>530.4243654458547</v>
+        <v>530.424365445855</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>127.907816348642</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>193.1893231137385</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>145.7700097699048</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27458,13 +27458,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>12.23288445056531</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>149.750068229201</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>244.3885688041121</v>
       </c>
     </row>
     <row r="6">
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>56.82580834555249</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>204.5481145192281</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>238.194432009668</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>310.6474264168543</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>101.1862602077082</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>52.99833216735078</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.867255545067696</v>
+        <v>3.867255545067692</v>
       </c>
       <c r="H14" t="n">
-        <v>39.60553085092455</v>
+        <v>39.60553085092451</v>
       </c>
       <c r="I14" t="n">
-        <v>149.0923694012225</v>
+        <v>149.0923694012223</v>
       </c>
       <c r="J14" t="n">
-        <v>328.2284803181897</v>
+        <v>328.2284803181893</v>
       </c>
       <c r="K14" t="n">
-        <v>491.9294075409053</v>
+        <v>491.9294075409048</v>
       </c>
       <c r="L14" t="n">
-        <v>610.2819294282709</v>
+        <v>610.2819294282704</v>
       </c>
       <c r="M14" t="n">
-        <v>679.0562352278686</v>
+        <v>679.0562352278679</v>
       </c>
       <c r="N14" t="n">
-        <v>690.0440750452922</v>
+        <v>690.0440750452915</v>
       </c>
       <c r="O14" t="n">
-        <v>651.5890527190253</v>
+        <v>651.5890527190246</v>
       </c>
       <c r="P14" t="n">
-        <v>556.1161814501664</v>
+        <v>556.1161814501659</v>
       </c>
       <c r="Q14" t="n">
-        <v>417.6200922424295</v>
+        <v>417.620092242429</v>
       </c>
       <c r="R14" t="n">
-        <v>242.9264911328589</v>
+        <v>242.9264911328586</v>
       </c>
       <c r="S14" t="n">
-        <v>88.12508573323021</v>
+        <v>88.12508573323012</v>
       </c>
       <c r="T14" t="n">
-        <v>16.92891114853385</v>
+        <v>16.92891114853383</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3093804436054156</v>
+        <v>0.3093804436054153</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.069164134325609</v>
+        <v>2.069164134325607</v>
       </c>
       <c r="H15" t="n">
-        <v>19.98376940256575</v>
+        <v>19.98376940256573</v>
       </c>
       <c r="I15" t="n">
-        <v>71.24095813357908</v>
+        <v>71.24095813357901</v>
       </c>
       <c r="J15" t="n">
-        <v>195.4906342873156</v>
+        <v>195.4906342873153</v>
       </c>
       <c r="K15" t="n">
-        <v>334.1246312871314</v>
+        <v>334.124631287131</v>
       </c>
       <c r="L15" t="n">
-        <v>449.2718003060933</v>
+        <v>449.2718003060929</v>
       </c>
       <c r="M15" t="n">
-        <v>524.2790001753965</v>
+        <v>524.2790001753959</v>
       </c>
       <c r="N15" t="n">
-        <v>538.1551052691855</v>
+        <v>538.1551052691849</v>
       </c>
       <c r="O15" t="n">
-        <v>492.3067841875496</v>
+        <v>492.3067841875491</v>
       </c>
       <c r="P15" t="n">
-        <v>395.1195968432824</v>
+        <v>395.1195968432819</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.1269866904058</v>
+        <v>264.1269866904055</v>
       </c>
       <c r="R15" t="n">
-        <v>128.4696819540058</v>
+        <v>128.4696819540057</v>
       </c>
       <c r="S15" t="n">
-        <v>38.43381626696907</v>
+        <v>38.43381626696903</v>
       </c>
       <c r="T15" t="n">
-        <v>8.340183506338745</v>
+        <v>8.340183506338736</v>
       </c>
       <c r="U15" t="n">
-        <v>0.136129219363527</v>
+        <v>0.1361292193635268</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.734717702490408</v>
+        <v>1.734717702490406</v>
       </c>
       <c r="H16" t="n">
-        <v>15.42321739123291</v>
+        <v>15.4232173912329</v>
       </c>
       <c r="I16" t="n">
-        <v>52.16769236216611</v>
+        <v>52.16769236216606</v>
       </c>
       <c r="J16" t="n">
-        <v>122.6445415660719</v>
+        <v>122.6445415660717</v>
       </c>
       <c r="K16" t="n">
-        <v>201.5426567075219</v>
+        <v>201.5426567075217</v>
       </c>
       <c r="L16" t="n">
-        <v>257.9052118775285</v>
+        <v>257.9052118775283</v>
       </c>
       <c r="M16" t="n">
-        <v>271.9248849458373</v>
+        <v>271.9248849458371</v>
       </c>
       <c r="N16" t="n">
-        <v>265.4591189638278</v>
+        <v>265.4591189638276</v>
       </c>
       <c r="O16" t="n">
-        <v>245.1944621665534</v>
+        <v>245.1944621665532</v>
       </c>
       <c r="P16" t="n">
-        <v>209.8062210357489</v>
+        <v>209.8062210357487</v>
       </c>
       <c r="Q16" t="n">
-        <v>145.2589523421741</v>
+        <v>145.258952342174</v>
       </c>
       <c r="R16" t="n">
-        <v>77.99921596834143</v>
+        <v>77.99921596834135</v>
       </c>
       <c r="S16" t="n">
-        <v>30.23139850612829</v>
+        <v>30.23139850612825</v>
       </c>
       <c r="T16" t="n">
-        <v>7.41197563791356</v>
+        <v>7.411975637913552</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09462096559038601</v>
+        <v>0.09462096559038591</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.867255545067696</v>
+        <v>3.867255545067692</v>
       </c>
       <c r="H17" t="n">
-        <v>39.60553085092455</v>
+        <v>39.60553085092451</v>
       </c>
       <c r="I17" t="n">
-        <v>149.0923694012225</v>
+        <v>149.0923694012223</v>
       </c>
       <c r="J17" t="n">
-        <v>328.2284803181897</v>
+        <v>328.2284803181893</v>
       </c>
       <c r="K17" t="n">
-        <v>491.9294075409053</v>
+        <v>491.9294075409048</v>
       </c>
       <c r="L17" t="n">
-        <v>610.2819294282709</v>
+        <v>610.2819294282704</v>
       </c>
       <c r="M17" t="n">
-        <v>679.0562352278686</v>
+        <v>679.0562352278679</v>
       </c>
       <c r="N17" t="n">
-        <v>690.0440750452922</v>
+        <v>690.0440750452915</v>
       </c>
       <c r="O17" t="n">
-        <v>651.5890527190253</v>
+        <v>651.5890527190246</v>
       </c>
       <c r="P17" t="n">
-        <v>556.1161814501664</v>
+        <v>556.1161814501659</v>
       </c>
       <c r="Q17" t="n">
-        <v>417.6200922424295</v>
+        <v>417.620092242429</v>
       </c>
       <c r="R17" t="n">
-        <v>242.9264911328589</v>
+        <v>242.9264911328586</v>
       </c>
       <c r="S17" t="n">
-        <v>88.12508573323021</v>
+        <v>88.12508573323012</v>
       </c>
       <c r="T17" t="n">
-        <v>16.92891114853385</v>
+        <v>16.92891114853383</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3093804436054156</v>
+        <v>0.3093804436054153</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.069164134325609</v>
+        <v>2.069164134325607</v>
       </c>
       <c r="H18" t="n">
-        <v>19.98376940256575</v>
+        <v>19.98376940256573</v>
       </c>
       <c r="I18" t="n">
-        <v>71.24095813357908</v>
+        <v>71.24095813357901</v>
       </c>
       <c r="J18" t="n">
-        <v>195.4906342873156</v>
+        <v>195.4906342873153</v>
       </c>
       <c r="K18" t="n">
-        <v>334.1246312871314</v>
+        <v>334.124631287131</v>
       </c>
       <c r="L18" t="n">
-        <v>449.2718003060933</v>
+        <v>449.2718003060929</v>
       </c>
       <c r="M18" t="n">
-        <v>524.2790001753965</v>
+        <v>524.2790001753959</v>
       </c>
       <c r="N18" t="n">
-        <v>538.1551052691855</v>
+        <v>538.1551052691849</v>
       </c>
       <c r="O18" t="n">
-        <v>492.3067841875496</v>
+        <v>492.3067841875491</v>
       </c>
       <c r="P18" t="n">
-        <v>395.1195968432824</v>
+        <v>395.1195968432819</v>
       </c>
       <c r="Q18" t="n">
-        <v>264.1269866904058</v>
+        <v>264.1269866904055</v>
       </c>
       <c r="R18" t="n">
-        <v>128.4696819540058</v>
+        <v>128.4696819540057</v>
       </c>
       <c r="S18" t="n">
-        <v>38.43381626696907</v>
+        <v>38.43381626696903</v>
       </c>
       <c r="T18" t="n">
-        <v>8.340183506338745</v>
+        <v>8.340183506338736</v>
       </c>
       <c r="U18" t="n">
-        <v>0.136129219363527</v>
+        <v>0.1361292193635268</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.734717702490408</v>
+        <v>1.734717702490406</v>
       </c>
       <c r="H19" t="n">
-        <v>15.42321739123291</v>
+        <v>15.4232173912329</v>
       </c>
       <c r="I19" t="n">
-        <v>52.16769236216611</v>
+        <v>52.16769236216606</v>
       </c>
       <c r="J19" t="n">
-        <v>122.6445415660719</v>
+        <v>122.6445415660717</v>
       </c>
       <c r="K19" t="n">
-        <v>201.5426567075219</v>
+        <v>201.5426567075217</v>
       </c>
       <c r="L19" t="n">
-        <v>257.9052118775285</v>
+        <v>257.9052118775283</v>
       </c>
       <c r="M19" t="n">
-        <v>271.9248849458373</v>
+        <v>271.9248849458371</v>
       </c>
       <c r="N19" t="n">
-        <v>265.4591189638278</v>
+        <v>265.4591189638276</v>
       </c>
       <c r="O19" t="n">
-        <v>245.1944621665534</v>
+        <v>245.1944621665532</v>
       </c>
       <c r="P19" t="n">
-        <v>209.8062210357489</v>
+        <v>209.8062210357487</v>
       </c>
       <c r="Q19" t="n">
-        <v>145.2589523421741</v>
+        <v>145.258952342174</v>
       </c>
       <c r="R19" t="n">
-        <v>77.99921596834143</v>
+        <v>77.99921596834135</v>
       </c>
       <c r="S19" t="n">
-        <v>30.23139850612829</v>
+        <v>30.23139850612825</v>
       </c>
       <c r="T19" t="n">
-        <v>7.41197563791356</v>
+        <v>7.411975637913552</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09462096559038601</v>
+        <v>0.09462096559038591</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34217,10 +34217,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>40.16862248572687</v>
+        <v>166.2596578261357</v>
       </c>
       <c r="K12" t="n">
-        <v>147.5988411910778</v>
+        <v>264.4867677164485</v>
       </c>
       <c r="L12" t="n">
         <v>245.2553024210098</v>
@@ -35498,7 +35498,7 @@
         <v>771.4588258232359</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4565907418124</v>
+        <v>328.400341140184</v>
       </c>
       <c r="O12" t="n">
         <v>277.9779163544921</v>
@@ -35507,7 +35507,7 @@
         <v>203.5734350998014</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.66001948583039</v>
+        <v>295.7373072216795</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.1825757915034</v>
+        <v>147.182575791503</v>
       </c>
       <c r="K14" t="n">
-        <v>595.9849690670895</v>
+        <v>271.8395564959242</v>
       </c>
       <c r="L14" t="n">
-        <v>493.4576268977154</v>
+        <v>792.1767290087336</v>
       </c>
       <c r="M14" t="n">
-        <v>898.2235354934284</v>
+        <v>898.2235354934277</v>
       </c>
       <c r="N14" t="n">
-        <v>897.9779358606854</v>
+        <v>897.9779358606847</v>
       </c>
       <c r="O14" t="n">
-        <v>802.2910225600839</v>
+        <v>802.2910225600832</v>
       </c>
       <c r="P14" t="n">
-        <v>646.6818938663796</v>
+        <v>646.6818938663789</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.31440236798</v>
+        <v>286.457132701113</v>
       </c>
       <c r="R14" t="n">
-        <v>93.05737319170919</v>
+        <v>27.34095331872649</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.7440429610577</v>
+        <v>68.65300762064865</v>
       </c>
       <c r="K15" t="n">
-        <v>196.2831923127724</v>
+        <v>196.283192312772</v>
       </c>
       <c r="L15" t="n">
-        <v>310.7174205262191</v>
+        <v>310.7174205262187</v>
       </c>
       <c r="M15" t="n">
-        <v>382.1449662533782</v>
+        <v>382.1449662533776</v>
       </c>
       <c r="N15" t="n">
-        <v>406.8133931858522</v>
+        <v>406.8133931858516</v>
       </c>
       <c r="O15" t="n">
-        <v>349.7105397431051</v>
+        <v>572.3263682978153</v>
       </c>
       <c r="P15" t="n">
-        <v>567.7472703790993</v>
+        <v>261.1451894289517</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.1452126043843</v>
+        <v>334.2225003402331</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>29.28536144939908</v>
+        <v>29.28536144939895</v>
       </c>
       <c r="K16" t="n">
-        <v>179.2731648816391</v>
+        <v>179.2731648816388</v>
       </c>
       <c r="L16" t="n">
-        <v>285.4952371378447</v>
+        <v>285.4952371378445</v>
       </c>
       <c r="M16" t="n">
-        <v>311.5087619076779</v>
+        <v>311.5087619076776</v>
       </c>
       <c r="N16" t="n">
-        <v>309.5912913430565</v>
+        <v>309.5912913430561</v>
       </c>
       <c r="O16" t="n">
-        <v>269.7795900805931</v>
+        <v>269.7795900805928</v>
       </c>
       <c r="P16" t="n">
-        <v>207.0847803006424</v>
+        <v>207.0847803006422</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.09690909047971</v>
+        <v>59.09690909047957</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>147.1825757915034</v>
+        <v>316.2791909635768</v>
       </c>
       <c r="K17" t="n">
-        <v>595.9849690670895</v>
+        <v>595.984969067089</v>
       </c>
       <c r="L17" t="n">
-        <v>792.1767290087341</v>
+        <v>792.1767290087336</v>
       </c>
       <c r="M17" t="n">
-        <v>898.2235354934284</v>
+        <v>898.2235354934277</v>
       </c>
       <c r="N17" t="n">
-        <v>897.9779358606854</v>
+        <v>897.9779358606847</v>
       </c>
       <c r="O17" t="n">
-        <v>802.2910225600839</v>
+        <v>421.4908412973379</v>
       </c>
       <c r="P17" t="n">
-        <v>324.8831856948969</v>
+        <v>347.351367186131</v>
       </c>
       <c r="Q17" t="n">
-        <v>218.3940084284439</v>
+        <v>407.6293930278842</v>
       </c>
       <c r="R17" t="n">
-        <v>93.05737319170919</v>
+        <v>93.05737319170893</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.7440429610577</v>
+        <v>68.65300762064865</v>
       </c>
       <c r="K18" t="n">
-        <v>196.2831923127724</v>
+        <v>196.283192312772</v>
       </c>
       <c r="L18" t="n">
-        <v>310.7174205262191</v>
+        <v>310.7174205262187</v>
       </c>
       <c r="M18" t="n">
-        <v>382.1449662533782</v>
+        <v>420.9757632672079</v>
       </c>
       <c r="N18" t="n">
-        <v>406.8133931858522</v>
+        <v>406.8133931858516</v>
       </c>
       <c r="O18" t="n">
-        <v>656.3126206932525</v>
+        <v>743.5728590198341</v>
       </c>
       <c r="P18" t="n">
-        <v>261.1451894289521</v>
+        <v>261.1451894289517</v>
       </c>
       <c r="Q18" t="n">
-        <v>124.1452126043843</v>
+        <v>124.145212604384</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>29.28536144939908</v>
+        <v>29.28536144939895</v>
       </c>
       <c r="K19" t="n">
-        <v>179.2731648816391</v>
+        <v>179.2731648816388</v>
       </c>
       <c r="L19" t="n">
-        <v>285.4952371378447</v>
+        <v>285.4952371378445</v>
       </c>
       <c r="M19" t="n">
-        <v>311.5087619076779</v>
+        <v>311.5087619076776</v>
       </c>
       <c r="N19" t="n">
-        <v>309.5912913430565</v>
+        <v>309.5912913430561</v>
       </c>
       <c r="O19" t="n">
-        <v>269.7795900805931</v>
+        <v>269.7795900805928</v>
       </c>
       <c r="P19" t="n">
-        <v>207.0847803006424</v>
+        <v>207.0847803006422</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.09690909047971</v>
+        <v>59.09690909047957</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>316.2791909635772</v>
+        <v>147.1825757915034</v>
       </c>
       <c r="K20" t="n">
-        <v>271.8395564959248</v>
+        <v>595.9849690670895</v>
       </c>
       <c r="L20" t="n">
         <v>792.1767290087341</v>
@@ -36136,13 +36136,13 @@
         <v>802.2910225600839</v>
       </c>
       <c r="P20" t="n">
-        <v>324.8831856948969</v>
+        <v>413.679211628343</v>
       </c>
       <c r="Q20" t="n">
-        <v>407.6293930278846</v>
+        <v>195.31440236798</v>
       </c>
       <c r="R20" t="n">
-        <v>58.87078599135941</v>
+        <v>27.34095331872675</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>310.7174205262191</v>
       </c>
       <c r="M21" t="n">
-        <v>576.4489470067228</v>
+        <v>382.1449662533782</v>
       </c>
       <c r="N21" t="n">
-        <v>406.8133931858522</v>
+        <v>839.5065094764082</v>
       </c>
       <c r="O21" t="n">
         <v>349.7105397431051</v>
@@ -36218,10 +36218,10 @@
         <v>261.1451894289521</v>
       </c>
       <c r="Q21" t="n">
-        <v>334.2225003402334</v>
+        <v>124.1452126043843</v>
       </c>
       <c r="R21" t="n">
-        <v>28.3118478013627</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>316.2791909635772</v>
+        <v>147.1825757915034</v>
       </c>
       <c r="K23" t="n">
         <v>595.9849690670895</v>
@@ -36367,16 +36367,16 @@
         <v>898.2235354934284</v>
       </c>
       <c r="N23" t="n">
-        <v>495.8786384505746</v>
+        <v>897.9779358606854</v>
       </c>
       <c r="O23" t="n">
         <v>802.2910225600839</v>
       </c>
       <c r="P23" t="n">
-        <v>646.6818938663796</v>
+        <v>324.8831856948969</v>
       </c>
       <c r="Q23" t="n">
-        <v>195.31440236798</v>
+        <v>284.1104283014259</v>
       </c>
       <c r="R23" t="n">
         <v>27.34095331872675</v>
@@ -36440,10 +36440,10 @@
         <v>196.2831923127724</v>
       </c>
       <c r="L24" t="n">
-        <v>424.947768176838</v>
+        <v>310.7174205262191</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1449662533782</v>
+        <v>814.8380825439343</v>
       </c>
       <c r="N24" t="n">
         <v>406.8133931858522</v>
@@ -36452,7 +36452,7 @@
         <v>349.7105397431051</v>
       </c>
       <c r="P24" t="n">
-        <v>579.6079580688893</v>
+        <v>261.1451894289521</v>
       </c>
       <c r="Q24" t="n">
         <v>124.1452126043843</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>787.7611930989425</v>
       </c>
       <c r="N26" t="n">
-        <v>837.9641425811438</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>624.4350414194028</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>587.9503624394027</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37069,25 +37069,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>585.5921995922405</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37306,28 +37306,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>790.107897498625</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>903.7193658423159</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>598.159169516776</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37780,28 +37780,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>338.2087623110573</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38017,28 +38017,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>833.7919031103917</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>727.3874636142355</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
@@ -38187,13 +38187,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
